--- a/medicine/Sexualité et sexologie/Versatile_(sexualité)/Versatile_(sexualité).xlsx
+++ b/medicine/Sexualité et sexologie/Versatile_(sexualité)/Versatile_(sexualité).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Versatile_(sexualit%C3%A9)</t>
+          <t>Versatile_(sexualité)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une relation homosexuelle, le terme versatile ou polyvalent ou encore recto verso renvoie à une personne qui se plaît à adopter une position passive ou active, sans se limiter à un seul de ces rôles. Elle peut être pénétrée par son partenaire ou  pénétrer celui-ci[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une relation homosexuelle, le terme versatile ou polyvalent ou encore recto verso renvoie à une personne qui se plaît à adopter une position passive ou active, sans se limiter à un seul de ces rôles. Elle peut être pénétrée par son partenaire ou  pénétrer celui-ci.
 Le terme versatile s’emploie également pour désigner des personnes préférant être pénétrée (« versatiles plutôt passives ») ou préférant pénétrer (« versatiles plutôt actives »), par opposition aux passifs et actifs « purs ».
 Ce terme se rapporte à la sexualité, aussi le rôle versatile n'induit pas nécessairement une identité plus « efféminée » qu’un « actif pur » ou plus virile qu’un « passif pur ». Les rôles sexuels ne dépendent pas de la façon d'exprimer le genre.
 Versatile est un anglicisme, auquel correspond le terme français polyvalent.
